--- a/DynamicAutomation/src/main/resources/DATA/data.xlsx
+++ b/DynamicAutomation/src/main/resources/DATA/data.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D5938565-9BF5-4924-812E-D34AA3508EE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\AutomationFrameWork2024\DynamicAutomation\src\main\resources\DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADC823F-4D30-4EE4-ABEB-4043C31F4D59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20760" windowHeight="11820" activeTab="1" xr2:uid="{F81ABE74-C163-4F78-9B62-6953E640E5AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{F81ABE74-C163-4F78-9B62-6953E640E5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,9 +18,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>TS_01</t>
   </si>
@@ -130,6 +135,12 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PunitRanjan</t>
   </si>
 </sst>
 </file>
@@ -626,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D2C748-6BD2-43FF-A628-D207242E12D4}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -869,4 +880,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC2871A-C445-4B8C-AB9F-2121F3C5E2F3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>